--- a/Time Reporting Template.xlsx
+++ b/Time Reporting Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tan49/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tan49/Documents/Projects/UWPD_Time_Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34FC8B-44E0-174B-9E32-648102859202}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3489CE-619C-AC47-A645-982290A01BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{2CC0F0FA-7B36-F54D-9EB7-F1A3E73554CF}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Insert name here</t>
-  </si>
-  <si>
-    <t>Insert job title here</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Number of Regular Hours in Support of COVID-19</t>
   </si>
@@ -47,32 +41,6 @@
   <si>
     <r>
       <t xml:space="preserve">Date Worked </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Job Title: </t>
     </r>
     <r>
       <rPr>
@@ -549,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4493FFF6-D006-EA49-9627-07C0ACEA76AE}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -567,89 +535,74 @@
     <col min="8" max="8" width="39.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:8" ht="51">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="68">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>43920</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="56" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="68">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="31" customHeight="1"/>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="C10" s="6"/>
       <c r="E10" s="6"/>
